--- a/resources/analysis/grammar/Features.xlsx
+++ b/resources/analysis/grammar/Features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mzatt\Projects\Git - v4j\resources\analysis\grammar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8CEBBA-D40F-4DFC-AA2E-997A8A41F26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F2F7D3-DCAB-42BA-AB77-02811542532B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2509" uniqueCount="321">
   <si>
     <t>Page</t>
   </si>
@@ -1005,6 +1005,44 @@
   <si>
     <t>Language A</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Characters here use the Slot alphabet.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-B-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1013,7 +1051,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1144,6 +1182,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1728,7 +1781,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
@@ -1759,27 +1812,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1789,47 +1821,17 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1846,6 +1848,63 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -49200,96 +49259,96 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20:U21"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="36"/>
-    <col min="2" max="2" width="9.140625" style="38"/>
+    <col min="1" max="1" width="9.140625" style="21"/>
+    <col min="2" max="2" width="9.140625" style="23"/>
     <col min="3" max="7" width="9.140625" style="15"/>
-    <col min="8" max="8" width="9.140625" style="36"/>
-    <col min="9" max="9" width="9.140625" style="38"/>
-    <col min="15" max="15" width="9.140625" style="36"/>
+    <col min="8" max="8" width="9.140625" style="21"/>
+    <col min="9" max="9" width="9.140625" style="23"/>
+    <col min="15" max="15" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="45"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="I1" s="45"/>
+    <row r="1" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="28"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="I1" s="28"/>
     </row>
-    <row r="2" spans="2:14" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="45"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="I2" s="45"/>
+    <row r="2" spans="2:14" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="28"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="39"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="44" t="s">
         <v>318</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="41" t="s">
         <v>317</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="26" t="s">
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="44" t="s">
         <v>318</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="20" t="s">
+      <c r="K3" s="45"/>
+      <c r="L3" s="41" t="s">
         <v>317</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="22"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
     </row>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="40"/>
-      <c r="C4" s="28" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="34" t="s">
+      <c r="I4" s="29"/>
+      <c r="J4" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="35" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="41" t="s">
-        <v>55</v>
+    <row r="5" spans="2:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="46" t="s">
+        <v>320</v>
       </c>
       <c r="C5" s="10">
         <v>7.0013135943978889E-3</v>
@@ -49306,15 +49365,15 @@
       <c r="G5" s="11">
         <v>1.687311539424638E-2</v>
       </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="17"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="36"/>
     </row>
     <row r="6" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="25" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="10">
@@ -49332,7 +49391,7 @@
       <c r="G6" s="11">
         <v>1.2580608743783141E-2</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="24" t="s">
         <v>16</v>
       </c>
       <c r="J6" s="7">
@@ -49352,7 +49411,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="25" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="10">
@@ -49370,7 +49429,7 @@
       <c r="G7" s="11">
         <v>2.8726450704681186E-2</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="25" t="s">
         <v>17</v>
       </c>
       <c r="J7" s="7">
@@ -49390,7 +49449,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="25" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="10">
@@ -49408,7 +49467,7 @@
       <c r="G8" s="11">
         <v>0.14833541139961606</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="25" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="7">
@@ -49428,7 +49487,7 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="25" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="10">
@@ -49446,7 +49505,7 @@
       <c r="G9" s="11">
         <v>3.0261849614427731E-2</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="25" t="s">
         <v>19</v>
       </c>
       <c r="J9" s="7">
@@ -49466,7 +49525,7 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="25" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="10">
@@ -49484,7 +49543,7 @@
       <c r="G10" s="11">
         <v>3.7961392258560801E-2</v>
       </c>
-      <c r="I10" s="42" t="s">
+      <c r="I10" s="25" t="s">
         <v>35</v>
       </c>
       <c r="J10" s="7">
@@ -49504,7 +49563,7 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="10">
@@ -49522,7 +49581,7 @@
       <c r="G11" s="11">
         <v>4.7836739517217675E-2</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="25" t="s">
         <v>38</v>
       </c>
       <c r="J11" s="7">
@@ -49542,7 +49601,7 @@
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="26" t="s">
         <v>316</v>
       </c>
       <c r="C12" s="10">
@@ -49560,7 +49619,7 @@
       <c r="G12" s="11">
         <v>1.8728994112941162E-2</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="25" t="s">
         <v>9</v>
       </c>
       <c r="J12" s="7">
@@ -49580,7 +49639,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="10">
@@ -49598,7 +49657,7 @@
       <c r="G13" s="11">
         <v>4.1683812916798362E-3</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="25" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="7">
@@ -49618,7 +49677,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="25" t="s">
         <v>56</v>
       </c>
       <c r="C14" s="10">
@@ -49636,7 +49695,7 @@
       <c r="G14" s="11">
         <v>0.12612652085158385</v>
       </c>
-      <c r="I14" s="42" t="s">
+      <c r="I14" s="25" t="s">
         <v>32</v>
       </c>
       <c r="J14" s="7">
@@ -49656,7 +49715,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="10">
@@ -49674,7 +49733,7 @@
       <c r="G15" s="11">
         <v>6.0064831503101955E-2</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="25" t="s">
         <v>33</v>
       </c>
       <c r="J15" s="7">
@@ -49694,7 +49753,7 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="25" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="10">
@@ -49712,7 +49771,7 @@
       <c r="G16" s="11">
         <v>6.8392740874564817E-2</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="25" t="s">
         <v>34</v>
       </c>
       <c r="J16" s="7">
@@ -49732,7 +49791,7 @@
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="25" t="s">
         <v>58</v>
       </c>
       <c r="C17" s="10">
@@ -49750,7 +49809,7 @@
       <c r="G17" s="11">
         <v>2.5901016939680287E-2</v>
       </c>
-      <c r="I17" s="43" t="s">
+      <c r="I17" s="26" t="s">
         <v>315</v>
       </c>
       <c r="J17" s="7">
@@ -49770,7 +49829,7 @@
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="10">
@@ -49788,7 +49847,7 @@
       <c r="G18" s="11">
         <v>8.5663309588818737E-3</v>
       </c>
-      <c r="I18" s="42" t="s">
+      <c r="I18" s="25" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="7">
@@ -49808,7 +49867,7 @@
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="25" t="s">
         <v>62</v>
       </c>
       <c r="C19" s="10">
@@ -49826,7 +49885,7 @@
       <c r="G19" s="11">
         <v>7.307505772441035E-2</v>
       </c>
-      <c r="I19" s="43" t="s">
+      <c r="I19" s="26" t="s">
         <v>313</v>
       </c>
       <c r="J19" s="7">
@@ -49846,7 +49905,7 @@
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="25" t="s">
         <v>63</v>
       </c>
       <c r="C20" s="10">
@@ -49864,7 +49923,7 @@
       <c r="G20" s="11">
         <v>2.5059251764573492E-2</v>
       </c>
-      <c r="I20" s="42" t="s">
+      <c r="I20" s="25" t="s">
         <v>61</v>
       </c>
       <c r="J20" s="7">
@@ -49884,7 +49943,7 @@
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="25" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="10">
@@ -49902,7 +49961,7 @@
       <c r="G21" s="11">
         <v>0.10350592016679219</v>
       </c>
-      <c r="I21" s="42" t="s">
+      <c r="I21" s="25" t="s">
         <v>47</v>
       </c>
       <c r="J21" s="7">
@@ -49922,7 +49981,7 @@
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="25" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="10">
@@ -49940,7 +49999,7 @@
       <c r="G22" s="11">
         <v>2.71530870964505E-2</v>
       </c>
-      <c r="I22" s="42" t="s">
+      <c r="I22" s="25" t="s">
         <v>49</v>
       </c>
       <c r="J22" s="7">
@@ -49960,7 +50019,7 @@
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="25" t="s">
         <v>51</v>
       </c>
       <c r="C23" s="10">
@@ -49978,7 +50037,7 @@
       <c r="G23" s="11">
         <v>4.8226608244051365E-3</v>
       </c>
-      <c r="I23" s="42" t="s">
+      <c r="I23" s="25" t="s">
         <v>48</v>
       </c>
       <c r="J23" s="7">
@@ -49998,7 +50057,7 @@
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="25" t="s">
         <v>54</v>
       </c>
       <c r="C24" s="10">
@@ -50016,7 +50075,7 @@
       <c r="G24" s="11">
         <v>1.0379361408645885E-2</v>
       </c>
-      <c r="I24" s="42" t="s">
+      <c r="I24" s="25" t="s">
         <v>60</v>
       </c>
       <c r="J24" s="7">
@@ -50036,7 +50095,7 @@
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="25" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="10">
@@ -50054,7 +50113,7 @@
       <c r="G25" s="11">
         <v>6.8256451969409632E-2</v>
       </c>
-      <c r="I25" s="42" t="s">
+      <c r="I25" s="25" t="s">
         <v>50</v>
       </c>
       <c r="J25" s="7">
@@ -50074,7 +50133,7 @@
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="25" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="10">
@@ -50092,7 +50151,7 @@
       <c r="G26" s="11">
         <v>0.2567223191711816</v>
       </c>
-      <c r="I26" s="42" t="s">
+      <c r="I26" s="25" t="s">
         <v>12</v>
       </c>
       <c r="J26" s="7">
@@ -50112,7 +50171,7 @@
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="25" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="10">
@@ -50130,7 +50189,7 @@
       <c r="G27" s="11">
         <v>1.2236038885085398E-2</v>
       </c>
-      <c r="I27" s="42" t="s">
+      <c r="I27" s="25" t="s">
         <v>40</v>
       </c>
       <c r="J27" s="7">
@@ -50150,7 +50209,7 @@
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="25" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="10">
@@ -50168,7 +50227,7 @@
       <c r="G28" s="11">
         <v>2.5091783494684862E-2</v>
       </c>
-      <c r="I28" s="42" t="s">
+      <c r="I28" s="25" t="s">
         <v>37</v>
       </c>
       <c r="J28" s="7">
@@ -50188,7 +50247,7 @@
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="10">
@@ -50206,7 +50265,7 @@
       <c r="G29" s="11">
         <v>4.2239943422294627E-3</v>
       </c>
-      <c r="I29" s="42" t="s">
+      <c r="I29" s="25" t="s">
         <v>53</v>
       </c>
       <c r="J29" s="7">
@@ -50226,7 +50285,7 @@
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="10">
@@ -50244,7 +50303,7 @@
       <c r="G30" s="11">
         <v>5.2972194706273672E-2</v>
       </c>
-      <c r="I30" s="42" t="s">
+      <c r="I30" s="25" t="s">
         <v>52</v>
       </c>
       <c r="J30" s="7">
@@ -50264,7 +50323,7 @@
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="10">
@@ -50282,7 +50341,7 @@
       <c r="G31" s="11">
         <v>1.4087098251719552E-2</v>
       </c>
-      <c r="I31" s="42" t="s">
+      <c r="I31" s="25" t="s">
         <v>7</v>
       </c>
       <c r="J31" s="7">
@@ -50302,7 +50361,7 @@
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="10">
@@ -50320,7 +50379,7 @@
       <c r="G32" s="11">
         <v>6.4267269125070853E-3</v>
       </c>
-      <c r="I32" s="42" t="s">
+      <c r="I32" s="25" t="s">
         <v>21</v>
       </c>
       <c r="J32" s="7">
@@ -50340,7 +50399,7 @@
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="26" t="s">
         <v>314</v>
       </c>
       <c r="C33" s="10">
@@ -50358,7 +50417,7 @@
       <c r="G33" s="11">
         <v>5.9311757011703704E-3</v>
       </c>
-      <c r="I33" s="42" t="s">
+      <c r="I33" s="25" t="s">
         <v>23</v>
       </c>
       <c r="J33" s="7">
@@ -50378,7 +50437,7 @@
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="25" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="10">
@@ -50396,7 +50455,7 @@
       <c r="G34" s="11">
         <v>0.22898454237132829</v>
       </c>
-      <c r="I34" s="42" t="s">
+      <c r="I34" s="25" t="s">
         <v>22</v>
       </c>
       <c r="J34" s="7">
@@ -50416,7 +50475,7 @@
       </c>
     </row>
     <row r="35" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C35" s="13">
@@ -50434,7 +50493,7 @@
       <c r="G35" s="14">
         <v>9.3077326444290804E-3</v>
       </c>
-      <c r="I35" s="44" t="s">
+      <c r="I35" s="27" t="s">
         <v>24</v>
       </c>
       <c r="J35" s="8">
@@ -50453,41 +50512,43 @@
         <v>7.9554304043853476E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:14" s="36" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="45"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="I36" s="45"/>
+    <row r="36" spans="2:14" s="21" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="28"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="I36" s="28"/>
     </row>
-    <row r="37" spans="2:14" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="45"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="I37" s="45"/>
+    <row r="37" spans="2:14" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="I37" s="28"/>
     </row>
-    <row r="38" spans="2:14" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="45"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="I38" s="45"/>
+    <row r="38" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="28"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="I38" s="28"/>
     </row>
-    <row r="39" spans="2:14" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="45"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="I39" s="45"/>
+    <row r="39" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="28"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="I39" s="28"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:G65">
@@ -50519,6 +50580,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/resources/analysis/grammar/Features.xlsx
+++ b/resources/analysis/grammar/Features.xlsx
@@ -1,33 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mzatt\Projects\Git - v4j\resources\analysis\grammar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F2F7D3-DCAB-42BA-AB77-02811542532B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF59B2D-135C-4AC8-9D72-6B765850EF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Structural Features" sheetId="1" r:id="rId1"/>
-    <sheet name="Summary" sheetId="9" r:id="rId2"/>
-    <sheet name="BB" sheetId="3" r:id="rId3"/>
-    <sheet name="HA" sheetId="5" r:id="rId4"/>
-    <sheet name="HB" sheetId="6" r:id="rId5"/>
-    <sheet name="PA" sheetId="7" r:id="rId6"/>
-    <sheet name="SB" sheetId="8" r:id="rId7"/>
+    <sheet name="Summary (alphabetical)" sheetId="9" r:id="rId2"/>
+    <sheet name="Summary (variation)" sheetId="10" r:id="rId3"/>
+    <sheet name="Confusion" sheetId="11" r:id="rId4"/>
+    <sheet name="BB" sheetId="3" r:id="rId5"/>
+    <sheet name="HA" sheetId="5" r:id="rId6"/>
+    <sheet name="HB" sheetId="6" r:id="rId7"/>
+    <sheet name="PA" sheetId="7" r:id="rId8"/>
+    <sheet name="SB" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BB!$A$1:$BP$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">HA!$A$1:$BP$90</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">HB!$A$1:$BP$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">PA!$A$1:$BP$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">SB!$A$1:$BP$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Structural Features'!$A$1:$BP$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">BB!$A$1:$BP$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">HA!$A$1:$BP$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">HB!$A$1:$BP$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">PA!$A$1:$BP$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">SB!$A$1:$BP$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Structural Features'!$A$1:$BP$228</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2509" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2595" uniqueCount="326">
   <si>
     <t>Page</t>
   </si>
@@ -1043,6 +1045,21 @@
       <t>*</t>
     </r>
   </si>
+  <si>
+    <t>Biological</t>
+  </si>
+  <si>
+    <t>Herbal-A</t>
+  </si>
+  <si>
+    <t>Herbal-B</t>
+  </si>
+  <si>
+    <t>Pharmaceutical</t>
+  </si>
+  <si>
+    <t>Recipes</t>
+  </si>
 </sst>
 </file>
 
@@ -1202,7 +1219,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1406,8 +1423,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1735,6 +1758,141 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1781,7 +1939,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
@@ -1849,6 +2007,12 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1900,11 +2064,22 @@
     <xf numFmtId="0" fontId="16" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2269,7 +2444,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49246,7 +49421,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BP1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:BP228" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -49258,8 +49433,8 @@
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24:N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49291,29 +49466,29 @@
       <c r="I2" s="28"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="29"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="46" t="s">
         <v>318</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="41" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="43" t="s">
         <v>317</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="44" t="s">
+      <c r="F3" s="44"/>
+      <c r="G3" s="45"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="46" t="s">
         <v>318</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="41" t="s">
+      <c r="K3" s="47"/>
+      <c r="L3" s="43" t="s">
         <v>317</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="45"/>
     </row>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="30"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="19" t="s">
         <v>70</v>
       </c>
@@ -49329,25 +49504,25 @@
       <c r="G4" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="37" t="s">
+      <c r="I4" s="31"/>
+      <c r="J4" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="N4" s="35" t="s">
+      <c r="N4" s="37" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="29" t="s">
         <v>320</v>
       </c>
       <c r="C5" s="10">
@@ -49365,12 +49540,12 @@
       <c r="G5" s="11">
         <v>1.687311539424638E-2</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="36"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="38"/>
     </row>
     <row r="6" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="25" t="s">
@@ -50522,7 +50697,7 @@
       <c r="I36" s="28"/>
     </row>
     <row r="37" spans="2:14" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="30" t="s">
         <v>319</v>
       </c>
       <c r="C37" s="22"/>
@@ -50585,12 +50760,1456 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3D5524-D3D8-44A1-BC43-F1DBB5E23CE6}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:N40"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="21"/>
+    <col min="2" max="2" width="9.140625" style="23"/>
+    <col min="3" max="7" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="28"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="2:14" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="28"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="31"/>
+      <c r="C3" s="46" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="F3" s="44"/>
+      <c r="G3" s="45"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="46" t="s">
+        <v>318</v>
+      </c>
+      <c r="K3" s="47"/>
+      <c r="L3" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="M3" s="44"/>
+      <c r="N3" s="45"/>
+    </row>
+    <row r="4" spans="2:14" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="32"/>
+      <c r="C4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="I4" s="31"/>
+      <c r="J4" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="N4" s="37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" s="21" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2.5060030992129792E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>6.8666332191896018E-3</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>7.1081341321784452E-4</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2.7005130974885221E-4</v>
+      </c>
+      <c r="I5" s="32"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="38"/>
+    </row>
+    <row r="6" spans="2:14" s="21" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4.8703455110504071E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.8145855052066326E-2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>5.7698420022078952E-3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2.4732805900945553E-3</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1.7663077052268931E-3</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="7">
+        <v>2.3983878891794687E-2</v>
+      </c>
+      <c r="K6" s="4">
+        <v>4.1622903054450128E-2</v>
+      </c>
+      <c r="L6" s="7">
+        <v>4.7753266949268465E-2</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.10444421059904394</v>
+      </c>
+      <c r="N6" s="4">
+        <v>5.1949572434328378E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2.8336552991635208E-3</v>
+      </c>
+      <c r="D7" s="11">
+        <v>4.7200604200701504E-3</v>
+      </c>
+      <c r="E7" s="10">
+        <v>6.6838784996413436E-2</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1.6094790802435852E-2</v>
+      </c>
+      <c r="G7" s="11">
+        <v>2.8726450704681186E-2</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.12633318485932368</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.12709296862570763</v>
+      </c>
+      <c r="L7" s="7">
+        <v>5.6082404346418473E-2</v>
+      </c>
+      <c r="M7" s="3">
+        <v>4.3393560141162177E-2</v>
+      </c>
+      <c r="N7" s="4">
+        <v>4.3197021185639381E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.17580886645654059</v>
+      </c>
+      <c r="D8" s="11">
+        <v>8.8637080086606659E-2</v>
+      </c>
+      <c r="E8" s="10">
+        <v>2.6490104438929751E-2</v>
+      </c>
+      <c r="F8" s="9">
+        <v>6.7215037070218102E-3</v>
+      </c>
+      <c r="G8" s="11">
+        <v>3.7961392258560801E-2</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="7">
+        <v>2.4102701360834752E-2</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2.4849338385531966E-2</v>
+      </c>
+      <c r="L8" s="7">
+        <v>3.5950150923061315E-2</v>
+      </c>
+      <c r="M8" s="3">
+        <v>8.5053535999479214E-3</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1.0241833180284743E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2.7637172694875384E-2</v>
+      </c>
+      <c r="D9" s="11">
+        <v>3.6484131690346809E-3</v>
+      </c>
+      <c r="E9" s="10">
+        <v>4.741131988961934E-3</v>
+      </c>
+      <c r="F9" s="9">
+        <v>3.5894674217685175E-3</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1.2580608743783141E-2</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1.9864106274303975E-2</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1.1264352772522895E-2</v>
+      </c>
+      <c r="L9" s="7">
+        <v>4.355092524640912E-2</v>
+      </c>
+      <c r="M9" s="3">
+        <v>3.6480996790217497E-2</v>
+      </c>
+      <c r="N9" s="4">
+        <v>5.7560201576945247E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2.6855167304605401E-4</v>
+      </c>
+      <c r="D10" s="11">
+        <v>2.4681864659139661E-3</v>
+      </c>
+      <c r="E10" s="10">
+        <v>2.9513318087252171E-2</v>
+      </c>
+      <c r="F10" s="9">
+        <v>6.9550413756302665E-2</v>
+      </c>
+      <c r="G10" s="11">
+        <v>6.0064831503101955E-2</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="10">
+        <v>1.2620894956396052E-3</v>
+      </c>
+      <c r="K10" s="11">
+        <v>9.6159036234336488E-3</v>
+      </c>
+      <c r="L10" s="10">
+        <v>1.0117345399214862E-2</v>
+      </c>
+      <c r="M10" s="9">
+        <v>6.2352886445278446E-3</v>
+      </c>
+      <c r="N10" s="11">
+        <v>1.2236038885085398E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="10">
+        <v>8.8210133448410962E-4</v>
+      </c>
+      <c r="D11" s="11">
+        <v>2.7711787232816577E-3</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.13054976370217417</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.20828436016128088</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0.12612652085158385</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="10">
+        <v>1.5232611638289284E-2</v>
+      </c>
+      <c r="K11" s="11">
+        <v>2.5686521276611311E-2</v>
+      </c>
+      <c r="L11" s="10">
+        <v>1.6364358883659332E-2</v>
+      </c>
+      <c r="M11" s="9">
+        <v>1.1609794900380624E-2</v>
+      </c>
+      <c r="N11" s="11">
+        <v>4.2239943422294627E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="10">
+        <v>5.3820111995288838E-3</v>
+      </c>
+      <c r="D12" s="11">
+        <v>7.4689510948352548E-3</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1.7049986359854899E-2</v>
+      </c>
+      <c r="F12" s="9">
+        <v>5.3199115882435678E-2</v>
+      </c>
+      <c r="G12" s="11">
+        <v>6.8256451969409632E-2</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="7">
+        <v>5.9491422725805017E-3</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1.1951980311533147E-2</v>
+      </c>
+      <c r="L12" s="7">
+        <v>7.6677219869932664E-3</v>
+      </c>
+      <c r="M12" s="3">
+        <v>2.1404346426543895E-2</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1.5291999967538989E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2.0475676193784003E-3</v>
+      </c>
+      <c r="D13" s="11">
+        <v>3.6880078094394431E-3</v>
+      </c>
+      <c r="E13" s="10">
+        <v>4.5930021735975986E-3</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1.8807120646390462E-2</v>
+      </c>
+      <c r="G13" s="11">
+        <v>6.4267269125070853E-3</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="7">
+        <v>6.6625989785745202E-2</v>
+      </c>
+      <c r="K13" s="4">
+        <v>4.7771634022682731E-2</v>
+      </c>
+      <c r="L13" s="7">
+        <v>7.8199244041943006E-2</v>
+      </c>
+      <c r="M13" s="3">
+        <v>2.2235588478621122E-2</v>
+      </c>
+      <c r="N13" s="4">
+        <v>3.3624756207537361E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="10">
+        <v>6.1845345043126351E-4</v>
+      </c>
+      <c r="D14" s="11">
+        <v>5.6996002982011001E-3</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1.9751019617277744E-2</v>
+      </c>
+      <c r="F14" s="9">
+        <v>3.6217666484478175E-2</v>
+      </c>
+      <c r="G14" s="11">
+        <v>5.2972194706273672E-2</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0.16936715469114216</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0.13219523970646271</v>
+      </c>
+      <c r="L14" s="10">
+        <v>9.5662382356152001E-2</v>
+      </c>
+      <c r="M14" s="9">
+        <v>8.4367689824006581E-2</v>
+      </c>
+      <c r="N14" s="11">
+        <v>4.7836739517217675E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="7">
+        <v>6.4155127689136213E-2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2.7636926261109054E-2</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1.4822331345922117E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>6.443879720602513E-3</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1.2697117511105794E-2</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1.0508144683289752E-2</v>
+      </c>
+      <c r="K15" s="11">
+        <v>1.7319079576856976E-2</v>
+      </c>
+      <c r="L15" s="10">
+        <v>1.3204623404539369E-2</v>
+      </c>
+      <c r="M15" s="9">
+        <v>1.7757999087200112E-2</v>
+      </c>
+      <c r="N15" s="11">
+        <v>3.0261849614427731E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1.789683997857926E-2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3.8278968297364531E-3</v>
+      </c>
+      <c r="E16" s="7">
+        <v>5.7322166947957384E-3</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4.0235233914001026E-3</v>
+      </c>
+      <c r="G16" s="4">
+        <v>3.482662389344244E-3</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="J16" s="7">
+        <v>4.3506342574645217E-2</v>
+      </c>
+      <c r="K16" s="4">
+        <v>4.1933763951282829E-2</v>
+      </c>
+      <c r="L16" s="7">
+        <v>3.1679824272866884E-2</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1.3759527255172313E-2</v>
+      </c>
+      <c r="N16" s="4">
+        <v>2.1201572893593902E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5.8602200174287869E-2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>7.6028977516866825E-3</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2.3741389160718447E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>8.6924852968989792E-3</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2.1113832284682908E-2</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1.6487499834920549E-2</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1.0249484193486928E-2</v>
+      </c>
+      <c r="L17" s="7">
+        <v>2.158493916321921E-2</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1.3206954839015735E-2</v>
+      </c>
+      <c r="N17" s="4">
+        <v>2.9884687440469765E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="10">
+        <v>5.841627135574471E-2</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0.19696024069063151</v>
+      </c>
+      <c r="E18" s="10">
+        <v>5.0868046250373812E-2</v>
+      </c>
+      <c r="F18" s="9">
+        <v>2.3986880702199058E-2</v>
+      </c>
+      <c r="G18" s="11">
+        <v>6.8392740874564817E-2</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="7">
+        <v>4.6326723528283147E-2</v>
+      </c>
+      <c r="K18" s="4">
+        <v>5.4425959772839053E-2</v>
+      </c>
+      <c r="L18" s="7">
+        <v>2.3348626080763841E-2</v>
+      </c>
+      <c r="M18" s="3">
+        <v>4.1833564851420528E-2</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1.8681066591965431E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1.0255662805282293E-2</v>
+      </c>
+      <c r="D19" s="11">
+        <v>3.985592972593776E-2</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1.1010123877429471E-2</v>
+      </c>
+      <c r="F19" s="9">
+        <v>2.8110337848768667E-3</v>
+      </c>
+      <c r="G19" s="11">
+        <v>2.5901016939680287E-2</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="7">
+        <v>9.6074683843933362E-2</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.11958445813874981</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.10260496728338192</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.23989268491667767</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0.17342749993464429</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1.5627261017624558E-2</v>
+      </c>
+      <c r="D20" s="11">
+        <v>3.5408743464707482E-3</v>
+      </c>
+      <c r="E20" s="10">
+        <v>3.8920948333627864E-3</v>
+      </c>
+      <c r="F20" s="9">
+        <v>4.8793579334269017E-3</v>
+      </c>
+      <c r="G20" s="11">
+        <v>4.1683812916798362E-3</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="7">
+        <v>1.1185089146620444E-2</v>
+      </c>
+      <c r="K20" s="4">
+        <v>7.7784667035303715E-3</v>
+      </c>
+      <c r="L20" s="7">
+        <v>5.4571034539151768E-3</v>
+      </c>
+      <c r="M20" s="3">
+        <v>3.4329453854799788E-3</v>
+      </c>
+      <c r="N20" s="4">
+        <v>9.3514203177610319E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="10">
+        <v>4.2241208524321245E-3</v>
+      </c>
+      <c r="D21" s="11">
+        <v>1.0383584625041426E-2</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1.074536871426127E-2</v>
+      </c>
+      <c r="F21" s="9">
+        <v>3.7081093910783215E-2</v>
+      </c>
+      <c r="G21" s="11">
+        <v>2.5091783494684862E-2</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0.16292977105494127</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.25079419475101294</v>
+      </c>
+      <c r="L21" s="7">
+        <v>9.427542666130749E-2</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0.19919302351962348</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0.10040946466490568</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="10">
+        <v>5.6458370816548043E-3</v>
+      </c>
+      <c r="D22" s="11">
+        <v>1.9640800906206735E-2</v>
+      </c>
+      <c r="E22" s="10">
+        <v>5.3636290283842255E-3</v>
+      </c>
+      <c r="F22" s="9">
+        <v>7.1221016791396547E-3</v>
+      </c>
+      <c r="G22" s="11">
+        <v>4.8226608244051365E-3</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="10">
+        <v>1.0510013257962868E-2</v>
+      </c>
+      <c r="K22" s="11">
+        <v>8.3944994218036854E-3</v>
+      </c>
+      <c r="L22" s="10">
+        <v>1.1324353119893577E-2</v>
+      </c>
+      <c r="M22" s="9">
+        <v>2.1434925812289982E-2</v>
+      </c>
+      <c r="N22" s="11">
+        <v>1.4087098251719552E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2.2530364196040223E-2</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5.5986333185631693E-3</v>
+      </c>
+      <c r="E23" s="7">
+        <v>6.847189808074328E-3</v>
+      </c>
+      <c r="F23" s="3">
+        <v>9.8821871226961282E-3</v>
+      </c>
+      <c r="G23" s="4">
+        <v>5.3990064714684212E-3</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="J23" s="10">
+        <v>7.64062269002667E-3</v>
+      </c>
+      <c r="K23" s="11">
+        <v>1.3552600519825394E-2</v>
+      </c>
+      <c r="L23" s="10">
+        <v>1.1350647337801627E-2</v>
+      </c>
+      <c r="M23" s="9">
+        <v>1.6111795404067618E-2</v>
+      </c>
+      <c r="N23" s="11">
+        <v>5.9311757011703704E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2.6255749803864133E-2</v>
+      </c>
+      <c r="D24" s="4">
+        <v>7.2686640862099916E-3</v>
+      </c>
+      <c r="E24" s="7">
+        <v>2.2627803398460013E-2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5.4357489254491277E-3</v>
+      </c>
+      <c r="G24" s="4">
+        <v>7.9554304043853476E-3</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="J24" s="7">
+        <v>7.2741369395910339E-3</v>
+      </c>
+      <c r="K24" s="4">
+        <v>1.2150562225797138E-2</v>
+      </c>
+      <c r="L24" s="7">
+        <v>5.5140954075812744E-3</v>
+      </c>
+      <c r="M24" s="3">
+        <v>6.7993696958227098E-3</v>
+      </c>
+      <c r="N24" s="4">
+        <v>5.8680520408241569E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1.2967192479249887E-2</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2.2763797034104291E-2</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2.4813263383313975E-3</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1.6403155539770023E-2</v>
+      </c>
+      <c r="G25" s="4">
+        <v>4.9732088952085043E-3</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="10">
+        <v>3.4356561998752928E-2</v>
+      </c>
+      <c r="K25" s="11">
+        <v>3.731419385431687E-2</v>
+      </c>
+      <c r="L25" s="10">
+        <v>4.4399117019526591E-2</v>
+      </c>
+      <c r="M25" s="9">
+        <v>6.880834445381126E-2</v>
+      </c>
+      <c r="N25" s="11">
+        <v>7.307505772441035E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="7">
+        <v>6.2718106259246941E-3</v>
+      </c>
+      <c r="D26" s="4">
+        <v>6.3288537376579431E-3</v>
+      </c>
+      <c r="E26" s="7">
+        <v>4.4052040745525527E-3</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2.0897126442471027E-2</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1.895738757741363E-2</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="7">
+        <v>7.4414418923390412E-3</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1.1803520156710851E-2</v>
+      </c>
+      <c r="L26" s="7">
+        <v>4.5140978787306099E-3</v>
+      </c>
+      <c r="M26" s="3">
+        <v>1.1882539024124495E-2</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1.1357020533199307E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1.4995864674018346E-2</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2.2629091254049823E-2</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1.030426610914777E-2</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5.94533336066034E-4</v>
+      </c>
+      <c r="G27" s="4">
+        <v>9.7122773939046295E-3</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="7">
+        <v>2.8334316926498012E-2</v>
+      </c>
+      <c r="K27" s="4">
+        <v>2.3941484347900575E-2</v>
+      </c>
+      <c r="L27" s="7">
+        <v>3.8416321005597193E-2</v>
+      </c>
+      <c r="M27" s="3">
+        <v>2.6490614533648937E-2</v>
+      </c>
+      <c r="N27" s="4">
+        <v>5.1376472794259165E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="10">
+        <v>8.4633858809950238E-3</v>
+      </c>
+      <c r="D28" s="11">
+        <v>1.1700745192930734E-2</v>
+      </c>
+      <c r="E28" s="10">
+        <v>2.3415903510535005E-2</v>
+      </c>
+      <c r="F28" s="9">
+        <v>4.3599160969636716E-3</v>
+      </c>
+      <c r="G28" s="11">
+        <v>8.5663309588818737E-3</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" s="10">
+        <v>5.4322497168589015E-2</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0.10254574122594985</v>
+      </c>
+      <c r="L28" s="10">
+        <v>0.11076105537163984</v>
+      </c>
+      <c r="M28" s="9">
+        <v>0.13174391060577037</v>
+      </c>
+      <c r="N28" s="11">
+        <v>0.14833541139961606</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="10">
+        <v>2.5448943565246934E-2</v>
+      </c>
+      <c r="D29" s="11">
+        <v>2.1459765205564345E-2</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0.11699834374398631</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0.10865173017136436</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0.10350592016679219</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="7">
+        <v>1.2166589686600558E-2</v>
+      </c>
+      <c r="K29" s="4">
+        <v>2.6791563497276859E-2</v>
+      </c>
+      <c r="L29" s="7">
+        <v>1.4611131542330503E-2</v>
+      </c>
+      <c r="M29" s="3">
+        <v>1.9320830966521395E-2</v>
+      </c>
+      <c r="N29" s="4">
+        <v>1.5378459300072736E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="10">
+        <v>8.1428151372641613E-3</v>
+      </c>
+      <c r="D30" s="11">
+        <v>1.2232196761720099E-2</v>
+      </c>
+      <c r="E30" s="10">
+        <v>1.5149069096698303E-2</v>
+      </c>
+      <c r="F30" s="9">
+        <v>4.3066385149672873E-3</v>
+      </c>
+      <c r="G30" s="11">
+        <v>2.5059251764573492E-2</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" s="10">
+        <v>1.0849583186893741E-2</v>
+      </c>
+      <c r="K30" s="11">
+        <v>1.5994915607481262E-2</v>
+      </c>
+      <c r="L30" s="10">
+        <v>1.8018799583651841E-2</v>
+      </c>
+      <c r="M30" s="9">
+        <v>1.7866763368017406E-2</v>
+      </c>
+      <c r="N30" s="11">
+        <v>1.0379361408645885E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="10">
+        <v>5.122693756419508E-2</v>
+      </c>
+      <c r="D31" s="11">
+        <v>1.4311711972059167E-2</v>
+      </c>
+      <c r="E31" s="10">
+        <v>2.6766711944372065E-2</v>
+      </c>
+      <c r="F31" s="9">
+        <v>1.079101014578587E-2</v>
+      </c>
+      <c r="G31" s="11">
+        <v>2.71530870964505E-2</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="10">
+        <v>0.20782579026933135</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0.31676267073253517</v>
+      </c>
+      <c r="L31" s="10">
+        <v>0.18586653622008062</v>
+      </c>
+      <c r="M31" s="9">
+        <v>0.33536357877361278</v>
+      </c>
+      <c r="N31" s="11">
+        <v>0.2567223191711816</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="C32" s="10">
+        <v>7.0013135943978889E-3</v>
+      </c>
+      <c r="D32" s="11">
+        <v>8.1253233084165565E-3</v>
+      </c>
+      <c r="E32" s="10">
+        <v>5.2150390896414959E-3</v>
+      </c>
+      <c r="F32" s="9">
+        <v>4.6049112205265733E-3</v>
+      </c>
+      <c r="G32" s="11">
+        <v>1.687311539424638E-2</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="J32" s="10">
+        <v>1.9131424016701957E-2</v>
+      </c>
+      <c r="K32" s="11">
+        <v>1.2979435858306762E-2</v>
+      </c>
+      <c r="L32" s="10">
+        <v>1.9064382357329244E-2</v>
+      </c>
+      <c r="M32" s="9">
+        <v>1.07582137919425E-2</v>
+      </c>
+      <c r="N32" s="11">
+        <v>1.8728994112941162E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="10">
+        <v>9.0924833900969948E-3</v>
+      </c>
+      <c r="D33" s="11">
+        <v>9.5498945619705428E-3</v>
+      </c>
+      <c r="E33" s="10">
+        <v>5.2281964611112456E-3</v>
+      </c>
+      <c r="F33" s="9">
+        <v>4.2786337500558649E-4</v>
+      </c>
+      <c r="G33" s="11">
+        <v>9.3077326444290804E-3</v>
+      </c>
+      <c r="I33" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="10">
+        <v>0.14690587895897933</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0.2256932192072896</v>
+      </c>
+      <c r="L33" s="10">
+        <v>0.25175184942700723</v>
+      </c>
+      <c r="M33" s="9">
+        <v>0.21668017733792544</v>
+      </c>
+      <c r="N33" s="11">
+        <v>0.22898454237132829</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="7">
+        <v>7.9998984911050675E-2</v>
+      </c>
+      <c r="D34" s="4">
+        <v>9.643340925333313E-2</v>
+      </c>
+      <c r="E34" s="7">
+        <v>6.5689059656164631E-2</v>
+      </c>
+      <c r="F34" s="3">
+        <v>3.910087461130753E-3</v>
+      </c>
+      <c r="G34" s="4">
+        <v>5.4768396063984474E-2</v>
+      </c>
+      <c r="I34" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0.37548622208556864</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0.3604801418688941</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0.48715423133358704</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0.53877293318776498</v>
+      </c>
+      <c r="N34" s="4">
+        <v>0.42667157494433178</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="8">
+        <v>6.1594045328160971E-3</v>
+      </c>
+      <c r="D35" s="6">
+        <v>2.8380650876490755E-2</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1.5460540836706898E-2</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1.1442954800530867E-2</v>
+      </c>
+      <c r="G35" s="6">
+        <v>2.9367539409547564E-2</v>
+      </c>
+      <c r="I35" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="8">
+        <v>0.19207659265283705</v>
+      </c>
+      <c r="K35" s="6">
+        <v>0.20993474994586681</v>
+      </c>
+      <c r="L35" s="8">
+        <v>0.20200483651857049</v>
+      </c>
+      <c r="M35" s="5">
+        <v>0.13036285972184675</v>
+      </c>
+      <c r="N35" s="6">
+        <v>0.19105920399850707</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" s="21" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:14" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="I37" s="28"/>
+    </row>
+    <row r="38" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:N35">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:G35">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585B038B-25C1-4639-942B-247E30897607}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" style="21"/>
+    <col min="8" max="8" width="15" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>323</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>324</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>325</v>
+      </c>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" s="48">
+        <v>19</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48">
+        <v>91</v>
+      </c>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48">
+        <v>2</v>
+      </c>
+      <c r="G4" s="50"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="48">
+        <v>3</v>
+      </c>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48">
+        <v>25</v>
+      </c>
+      <c r="F5" s="48"/>
+      <c r="G5" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48">
+        <v>2</v>
+      </c>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48">
+        <v>14</v>
+      </c>
+      <c r="G6" s="50"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" s="52">
+        <v>2</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52">
+        <v>2</v>
+      </c>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+    </row>
+    <row r="9" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350DDF96-FC27-43B7-B440-7DBC585DB865}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BP22"/>
   <sheetViews>
-    <sheetView topLeftCell="AX1" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55176,13 +56795,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA1FDAA-07D0-458C-82E2-D4078FB23042}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:BP91"/>
   <sheetViews>
-    <sheetView topLeftCell="AP55" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="BE2" sqref="A2:BP91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -73736,243 +75355,243 @@
         <v>6.6625989785745202E-2</v>
       </c>
       <c r="I91">
-        <f t="shared" ref="I91:BP91" si="0">AVERAGE(I2:I90)</f>
+        <f>AVERAGE(I2:I90)</f>
         <v>0.14690587895897933</v>
       </c>
       <c r="J91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J2:J90)</f>
         <v>9.6074683843933362E-2</v>
       </c>
       <c r="K91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(K2:K90)</f>
         <v>0.16936715469114216</v>
       </c>
       <c r="L91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(L2:L90)</f>
         <v>5.3820111995288838E-3</v>
       </c>
       <c r="M91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(M2:M90)</f>
         <v>4.8703455110504071E-2</v>
       </c>
       <c r="N91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(N2:N90)</f>
         <v>4.6326723528283147E-2</v>
       </c>
       <c r="O91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(O2:O90)</f>
         <v>6.2718106259246941E-3</v>
       </c>
       <c r="P91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(P2:P90)</f>
         <v>1.5627261017624558E-2</v>
       </c>
       <c r="Q91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(Q2:Q90)</f>
         <v>7.9998984911050675E-2</v>
       </c>
       <c r="R91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(R2:R90)</f>
         <v>0.16292977105494127</v>
       </c>
       <c r="S91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(S2:S90)</f>
         <v>9.0924833900969948E-3</v>
       </c>
       <c r="T91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(T2:T90)</f>
         <v>1.4995864674018346E-2</v>
       </c>
       <c r="U91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(U2:U90)</f>
         <v>0.12633318485932368</v>
       </c>
       <c r="V91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(V2:V90)</f>
         <v>0.37548622208556864</v>
       </c>
       <c r="W91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(W2:W90)</f>
         <v>2.4102701360834752E-2</v>
       </c>
       <c r="X91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(X2:X90)</f>
         <v>1.1185089146620444E-2</v>
       </c>
       <c r="Y91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(Y2:Y90)</f>
         <v>2.6255749803864133E-2</v>
       </c>
       <c r="Z91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(Z2:Z90)</f>
         <v>0.20782579026933135</v>
       </c>
       <c r="AA91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AA2:AA90)</f>
         <v>6.1845345043126351E-4</v>
       </c>
       <c r="AB91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AB2:AB90)</f>
         <v>1.2620894956396052E-3</v>
       </c>
       <c r="AC91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AC2:AC90)</f>
         <v>1.5232611638289284E-2</v>
       </c>
       <c r="AD91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AD2:AD90)</f>
         <v>1.0510013257962868E-2</v>
       </c>
       <c r="AE91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AE2:AE90)</f>
         <v>4.2241208524321245E-3</v>
       </c>
       <c r="AF91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AF2:AF90)</f>
         <v>2.0475676193784003E-3</v>
       </c>
       <c r="AG91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AG2:AG90)</f>
         <v>0.19207659265283705</v>
       </c>
       <c r="AH91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AH2:AH90)</f>
         <v>6.1594045328160971E-3</v>
       </c>
       <c r="AI91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AI2:AI90)</f>
         <v>7.4414418923390412E-3</v>
       </c>
       <c r="AJ91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AJ2:AJ90)</f>
         <v>2.8334316926498012E-2</v>
       </c>
       <c r="AK91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AK2:AK90)</f>
         <v>8.4633858809950238E-3</v>
       </c>
       <c r="AL91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AL2:AL90)</f>
         <v>5.8602200174287869E-2</v>
       </c>
       <c r="AM91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AM2:AM90)</f>
         <v>1.6487499834920549E-2</v>
       </c>
       <c r="AN91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AN2:AN90)</f>
         <v>2.5448943565246934E-2</v>
       </c>
       <c r="AO91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AO2:AO90)</f>
         <v>1.9864106274303975E-2</v>
       </c>
       <c r="AP91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AP2:AP90)</f>
         <v>5.122693756419508E-2</v>
       </c>
       <c r="AQ91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AQ2:AQ90)</f>
         <v>0.17580886645654059</v>
       </c>
       <c r="AR91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AR2:AR90)</f>
         <v>2.8336552991635208E-3</v>
       </c>
       <c r="AS91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AS2:AS90)</f>
         <v>5.4322497168589015E-2</v>
       </c>
       <c r="AT91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AT2:AT90)</f>
         <v>1.0508144683289752E-2</v>
       </c>
       <c r="AU91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AU2:AU90)</f>
         <v>2.7637172694875384E-2</v>
       </c>
       <c r="AV91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AV2:AV90)</f>
         <v>2.3983878891794687E-2</v>
       </c>
       <c r="AW91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AW2:AW90)</f>
         <v>6.4155127689136213E-2</v>
       </c>
       <c r="AX91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AX2:AX90)</f>
         <v>5.9491422725805017E-3</v>
       </c>
       <c r="AY91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AY2:AY90)</f>
         <v>1.789683997857926E-2</v>
       </c>
       <c r="AZ91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(AZ2:AZ90)</f>
         <v>5.6458370816548043E-3</v>
       </c>
       <c r="BA91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(BA2:BA90)</f>
         <v>2.2530364196040223E-2</v>
       </c>
       <c r="BB91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(BB2:BB90)</f>
         <v>2.5060030992129792E-2</v>
       </c>
       <c r="BC91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(BC2:BC90)</f>
         <v>1.0849583186893741E-2</v>
       </c>
       <c r="BD91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(BD2:BD90)</f>
         <v>7.0013135943978889E-3</v>
       </c>
       <c r="BE91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(BE2:BE90)</f>
         <v>8.8210133448410962E-4</v>
       </c>
       <c r="BF91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(BF2:BF90)</f>
         <v>5.841627135574471E-2</v>
       </c>
       <c r="BG91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(BG2:BG90)</f>
         <v>1.0255662805282293E-2</v>
       </c>
       <c r="BH91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(BH2:BH90)</f>
         <v>2.6855167304605401E-4</v>
       </c>
       <c r="BI91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(BI2:BI90)</f>
         <v>1.2967192479249887E-2</v>
       </c>
       <c r="BJ91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(BJ2:BJ90)</f>
         <v>1.2166589686600558E-2</v>
       </c>
       <c r="BK91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(BK2:BK90)</f>
         <v>4.3506342574645217E-2</v>
       </c>
       <c r="BL91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(BL2:BL90)</f>
         <v>3.4356561998752928E-2</v>
       </c>
       <c r="BM91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(BM2:BM90)</f>
         <v>8.1428151372641613E-3</v>
       </c>
       <c r="BN91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(BN2:BN90)</f>
         <v>7.64062269002667E-3</v>
       </c>
       <c r="BO91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(BO2:BO90)</f>
         <v>7.2741369395910339E-3</v>
       </c>
       <c r="BP91">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(BP2:BP90)</f>
         <v>1.9131424016701957E-2</v>
       </c>
     </row>
@@ -73982,13 +75601,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3347D9D0-6797-4EDE-A6E3-23510234E886}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:BP32"/>
   <sheetViews>
-    <sheetView topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -80633,7 +82252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FF1963-05A9-441B-8667-A26A17A5D373}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BP18"/>
@@ -84400,7 +86019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82156624-117B-48E3-86F8-D752A6D4040F}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:BP25"/>
